--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-dosage-split.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-dosage-split.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$49</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="341">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -515,35 +515,39 @@
     <t>Dosage.timing.repeat.bounds[x]</t>
   </si>
   <si>
+    <t>Duration
+Range</t>
+  </si>
+  <si>
+    <t>Length/Range of lengths, or (Start and/or end) limits</t>
+  </si>
+  <si>
+    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t>IVL(TS) used in a QSI</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.bounds[x]:boundsPeriod</t>
+  </si>
+  <si>
+    <t>boundsPeriod</t>
+  </si>
+  <si>
     <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Length/Range of lengths, or (Start and/or end) limits</t>
-  </si>
-  <si>
-    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Timing.repeat.bounds[x]</t>
-  </si>
-  <si>
-    <t>IVL(TS) used in a QSI</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.bounds[x]:boundsPeriod</t>
-  </si>
-  <si>
-    <t>boundsPeriod</t>
-  </si>
-  <si>
     <t>Dosage.timing.repeat.count</t>
   </si>
   <si>
@@ -866,64 +870,6 @@
     <t>RXR-2</t>
   </si>
   <si>
-    <t>Dosage.site.id</t>
-  </si>
-  <si>
-    <t>Dosage.site.extension</t>
-  </si>
-  <si>
-    <t>Dosage.site.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Dosage.site.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
     <t>Dosage.route</t>
   </si>
   <si>
@@ -936,10 +882,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/edqm-routeofadministration</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -948,18 +891,6 @@
     <t>RXR-1</t>
   </si>
   <si>
-    <t>Dosage.route.id</t>
-  </si>
-  <si>
-    <t>Dosage.route.extension</t>
-  </si>
-  <si>
-    <t>Dosage.route.coding</t>
-  </si>
-  <si>
-    <t>Dosage.route.text</t>
-  </si>
-  <si>
     <t>Dosage.method</t>
   </si>
   <si>
@@ -975,10 +906,7 @@
     <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/edqm-administrationmethod</t>
   </si>
   <si>
     <t>.doseQuantity</t>
@@ -1023,8 +951,8 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Range {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-range}
-Quantity {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-quantity}</t>
+    <t>Range {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-range-with-emed-units}
+Quantity {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-quantity-with-emed-units}</t>
   </si>
   <si>
     <t>Amount of medication per dose</t>
@@ -1052,29 +980,6 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
     <t>Dosage.doseAndRate.dose[x]:doseRange</t>
   </si>
   <si>
@@ -1085,25 +990,6 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
     <t>Dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
@@ -1111,26 +997,24 @@
 </t>
   </si>
   <si>
-    <t>A ratio of two Quantity values - a numerator and a denominator</t>
-  </si>
-  <si>
-    <t>A relationship of two Quantity values - expressed as a numerator and a denominator.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+    <t>Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.++It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammer where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
   </si>
   <si>
     <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>.rateQuantity</t>
+  </si>
+  <si>
+    <t>RXE22, RXE23, RXE-24</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -1511,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL57"/>
+  <dimension ref="A1:AL49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1520,17 +1404,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.2890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.5859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1539,24 +1423,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="191.95703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.67578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="198.02734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.33203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="122.4609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.81640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="128.11328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3411,7 +3295,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3529,7 +3413,7 @@
         <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>161</v>
@@ -3609,10 +3493,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3635,19 +3519,19 @@
         <v>101</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3696,7 +3580,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3711,7 +3595,7 @@
         <v>82</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3719,10 +3603,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3745,13 +3629,13 @@
         <v>101</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3802,7 +3686,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3817,7 +3701,7 @@
         <v>82</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3825,10 +3709,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3851,19 +3735,19 @@
         <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3912,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3927,7 +3811,7 @@
         <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -3935,10 +3819,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3961,19 +3845,19 @@
         <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4022,7 +3906,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4037,7 +3921,7 @@
         <v>82</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4045,10 +3929,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4071,13 +3955,13 @@
         <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4104,13 +3988,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4128,7 +4012,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4143,7 +4027,7 @@
         <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4151,10 +4035,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4177,13 +4061,13 @@
         <v>101</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4191,7 +4075,7 @@
         <v>76</v>
       </c>
       <c r="Q25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>76</v>
@@ -4236,7 +4120,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4251,7 +4135,7 @@
         <v>82</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4259,10 +4143,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4285,13 +4169,13 @@
         <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4342,7 +4226,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4357,7 +4241,7 @@
         <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4365,10 +4249,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4391,13 +4275,13 @@
         <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4448,7 +4332,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4463,7 +4347,7 @@
         <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4471,10 +4355,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4497,13 +4381,13 @@
         <v>101</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4554,7 +4438,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4569,7 +4453,7 @@
         <v>82</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4577,10 +4461,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4603,13 +4487,13 @@
         <v>101</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4636,13 +4520,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4660,7 +4544,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4675,7 +4559,7 @@
         <v>82</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4683,10 +4567,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4709,16 +4593,16 @@
         <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4744,11 +4628,11 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4766,7 +4650,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4789,10 +4673,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4815,16 +4699,16 @@
         <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4874,7 +4758,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4897,10 +4781,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4923,19 +4807,19 @@
         <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4960,13 +4844,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -4984,7 +4868,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4996,10 +4880,10 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5007,10 +4891,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5033,13 +4917,13 @@
         <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5090,7 +4974,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5105,7 +4989,7 @@
         <v>82</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5113,10 +4997,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5148,7 +5032,7 @@
         <v>94</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5174,13 +5058,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5198,7 +5082,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5213,7 +5097,7 @@
         <v>82</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5221,10 +5105,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5247,16 +5131,16 @@
         <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5285,10 +5169,10 @@
         <v>123</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5306,7 +5190,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5321,18 +5205,18 @@
         <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5358,16 +5242,16 @@
         <v>118</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5395,10 +5279,10 @@
         <v>123</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5416,7 +5300,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5431,18 +5315,18 @@
         <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5453,7 +5337,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5462,19 +5346,21 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>87</v>
+        <v>276</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>88</v>
+        <v>277</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5498,13 +5384,11 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -5522,7 +5406,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>89</v>
+        <v>275</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5534,32 +5418,32 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5568,21 +5452,23 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>140</v>
+        <v>283</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5606,57 +5492,55 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5664,10 +5548,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5679,20 +5563,16 @@
         <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>277</v>
+        <v>150</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5740,7 +5620,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5755,18 +5635,18 @@
         <v>82</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5774,7 +5654,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>85</v>
@@ -5786,23 +5666,19 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>86</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5850,7 +5726,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>290</v>
+        <v>89</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5862,32 +5738,32 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>291</v>
+        <v>90</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -5896,21 +5772,21 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
+        <v>140</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -5934,57 +5810,57 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6004,19 +5880,21 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6040,13 +5918,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6064,7 +5942,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>89</v>
+        <v>296</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6076,55 +5954,57 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>92</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>140</v>
+        <v>303</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>141</v>
+        <v>304</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6160,47 +6040,47 @@
         <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>98</v>
+        <v>301</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6209,10 +6089,10 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>76</v>
@@ -6221,19 +6101,19 @@
         <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6282,13 +6162,13 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
@@ -6297,32 +6177,34 @@
         <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>284</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>76</v>
@@ -6331,19 +6213,19 @@
         <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>86</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6392,7 +6274,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6407,18 +6289,18 @@
         <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6429,7 +6311,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6441,19 +6323,19 @@
         <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>118</v>
+        <v>315</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6478,13 +6360,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -6502,7 +6384,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6517,18 +6399,18 @@
         <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6536,10 +6418,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6551,16 +6433,20 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6608,13 +6494,13 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
@@ -6623,18 +6509,18 @@
         <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6645,7 +6531,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6654,19 +6540,23 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>86</v>
+        <v>331</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>87</v>
+        <v>332</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -6714,7 +6604,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>89</v>
+        <v>330</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6726,10 +6616,10 @@
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>90</v>
+        <v>336</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6737,21 +6627,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -6760,21 +6650,21 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>92</v>
+        <v>331</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
@@ -6810,919 +6700,41 @@
         <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>98</v>
+        <v>337</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>90</v>
+        <v>336</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL57">
+  <autoFilter ref="A1:AL49">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7732,7 +6744,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI48">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-dosage-split.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-dosage-split.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$48</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="338">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -339,7 +339,7 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -362,7 +362,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-2:The sequence number must be greater than 1 {$this &gt; 1}</t>
+ch-dosage-2:The sequence number MUST be greater than 1 {$this &gt; 1}</t>
   </si>
   <si>
     <t>.text</t>
@@ -405,7 +405,7 @@
     <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes|4.0.1</t>
   </si>
   <si>
     <t>RXO-7</t>
@@ -515,14 +515,439 @@
     <t>Dosage.timing.repeat.bounds[x]</t>
   </si>
   <si>
-    <t>Duration
-Range</t>
+    <t xml:space="preserve">Period
+</t>
   </si>
   <si>
     <t>Length/Range of lengths, or (Start and/or end) limits</t>
   </si>
   <si>
     <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t>IVL(TS) used in a QSI</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of times to repeat</t>
+  </si>
+  <si>
+    <t>A total count of the desired number of repetitions across the duration of the entire timing specification. If countMax is present, this element indicates the lower bound of the allowed range of count values.</t>
+  </si>
+  <si>
+    <t>If you have both bounds and count, then this should be understood as within the bounds period, until count times happens.</t>
+  </si>
+  <si>
+    <t>Repetitions may be limited by end time or total occurrences.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.count</t>
+  </si>
+  <si>
+    <t>PIVL.count</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>Maximum number of times to repeat</t>
+  </si>
+  <si>
+    <t>If present, indicates that the count is a range - so to perform the action between [count] and [countMax] times.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>How long when it happens</t>
+  </si>
+  <si>
+    <t>How long this thing happens for when it happens. If durationMax is present, this element indicates the lower bound of the allowed range of the duration.</t>
+  </si>
+  <si>
+    <t>For some events the duration is part of the definition of the event (e.g. IV infusions, where the duration is implicit in the specified quantity and rate). For others, it's part of the timing specification (e.g. exercise).</t>
+  </si>
+  <si>
+    <t>Some activities are not instantaneous and need to be maintained for a period of time.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>PIVL.phase</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>How long when it happens (Max)</t>
+  </si>
+  <si>
+    <t>If present, indicates that the duration is a range - so to perform the action between [duration] and [durationMax] time length.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+  </si>
+  <si>
+    <t>The units of time for the duration, in UCUM units.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A unit of time (units from UCUM).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>PIVL.phase.unit</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>Event occurs frequency times per period</t>
+  </si>
+  <si>
+    <t>The number of times to repeat the action within the specified period. If frequencyMax is present, this element indicates the lower bound of the allowed range of the frequency.</t>
+  </si>
+  <si>
+    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>Event occurs up to frequencyMax times per period</t>
+  </si>
+  <si>
+    <t>If present, indicates that the frequency is a range - so to repeat between [frequency] and [frequencyMax] times within the period or period range.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.period</t>
+  </si>
+  <si>
+    <t>Indicates the duration of time over which repetitions are to occur; e.g. to express "3 times per day", 3 would be the frequency and "1 day" would be the period. If periodMax is present, this element indicates the lower bound of the allowed range of the period length.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.period</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>Upper limit of period (3-4 hours)</t>
+  </si>
+  <si>
+    <t>If present, indicates that the period is a range from [period] to [periodMax], allowing expressing concepts such as "do this once every 3-5 days.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>The units of time for the period in UCUM units.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>If one or more days of week is provided, then the action happens only on the specified day(s).</t>
+  </si>
+  <si>
+    <t>If no days are specified, the action is assumed to happen every day as otherwise specified. The elements frequency and period cannot be used as well as dayOfWeek.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time
+</t>
+  </si>
+  <si>
+    <t>Time of day for action</t>
+  </si>
+  <si>
+    <t>Specified time of day for action to take place.</t>
+  </si>
+  <si>
+    <t>When time of day is specified, it is inferred that the action happens every day (as filtered by dayofWeek) on the specified times. The elements when, frequency and period cannot be used as well as timeOfDay.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.when</t>
+  </si>
+  <si>
+    <t>... It shall only contain values from Event Timings</t>
+  </si>
+  <si>
+    <t>An approximate time period during the day, potentially linked to an event of daily living that indicates when the action should occur.</t>
+  </si>
+  <si>
+    <t>When more than one event is listed, the event is tied to the union of the specified events.</t>
+  </si>
+  <si>
+    <t>Timings are frequently determined by occurrences such as waking, eating and sleep.</t>
+  </si>
+  <si>
+    <t>Real world event relating to the schedule.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.when</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ch-emed-event-timing:For the representation of the time of administration according to the 1-1-1-1 scheme, the values MORN-NOON-EVE-NIGHT SHOULD be used. {$this='MORN' or $this='NOON' or $this='EVE' or $this='NIGHT'}only-standard-event-timings:The timing event shall only be 'MORN', 'NOON', 'EVE' or 'NIGHT'. {$this = 'MORN' or $this = 'NOON' or $this = 'EVE' or $this = 'NIGHT'}</t>
+  </si>
+  <si>
+    <t>EIVL.event</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>Minutes from event (before or after)</t>
+  </si>
+  <si>
+    <t>The number of minutes from the event. If the event code does not indicate whether the minutes is before or after the event, then the offset is assumed to be after the event.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.offset</t>
+  </si>
+  <si>
+    <t>EIVL.offset</t>
+  </si>
+  <si>
+    <t>Dosage.timing.code</t>
+  </si>
+  <si>
+    <t>BID etc. are defined as 'at institutionally specified times'. For example, an institution may choose that BID is "always at 7am and 6pm".  If it is inappropriate for this choice to be made, the code BID should not be used. Instead, a distinct organization-specific code should be used in place of the HL7-defined BID code and/or a structured representation should be used (in this case, specifying the two event times).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Code for a known / defined timing pattern.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/timing-abbreviation|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.code</t>
+  </si>
+  <si>
+    <t>QSC.code</t>
+  </si>
+  <si>
+    <t>Dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Take "as needed" (for x)</t>
+  </si>
+  <si>
+    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
+  </si>
+  <si>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
+  </si>
+  <si>
+    <t>TQ1-9</t>
+  </si>
+  <si>
+    <t>Dosage.site</t>
+  </si>
+  <si>
+    <t>Body site to administer to</t>
+  </si>
+  <si>
+    <t>Body site to administer to.</t>
+  </si>
+  <si>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes|4.0.1</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>How drug should enter body</t>
+  </si>
+  <si>
+    <t>How drug should enter body.</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/edqm-routeofadministration</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>Technique for administering medication</t>
+  </si>
+  <si>
+    <t>Technique for administering medication.</t>
+  </si>
+  <si>
+    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
+  </si>
+  <si>
+    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/edqm-administrationmethod</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXR-4</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate</t>
+  </si>
+  <si>
+    <t>Amount of medication administered</t>
+  </si>
+  <si>
+    <t>The amount of medication administered.</t>
+  </si>
+  <si>
+    <t>TQ1-2</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.extension</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.type</t>
+  </si>
+  <si>
+    <t>If the type is not populated, assume to be "ordered".</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/dose-rate-type|4.0.1</t>
+  </si>
+  <si>
+    <t>RXO-21; RXE-23</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t>Range {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-range-with-emed-units}
+Quantity {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-quantity-with-emed-units}</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -530,441 +955,6 @@
   </si>
   <si>
     <t>closed</t>
-  </si>
-  <si>
-    <t>Timing.repeat.bounds[x]</t>
-  </si>
-  <si>
-    <t>IVL(TS) used in a QSI</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.bounds[x]:boundsPeriod</t>
-  </si>
-  <si>
-    <t>boundsPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Number of times to repeat</t>
-  </si>
-  <si>
-    <t>A total count of the desired number of repetitions across the duration of the entire timing specification. If countMax is present, this element indicates the lower bound of the allowed range of count values.</t>
-  </si>
-  <si>
-    <t>If you have both bounds and count, then this should be understood as within the bounds period, until count times happens.</t>
-  </si>
-  <si>
-    <t>Repetitions may be limited by end time or total occurrences.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.count</t>
-  </si>
-  <si>
-    <t>PIVL.count</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.countMax</t>
-  </si>
-  <si>
-    <t>Maximum number of times to repeat</t>
-  </si>
-  <si>
-    <t>If present, indicates that the count is a range - so to perform the action between [count] and [countMax] times.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.countMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>How long when it happens</t>
-  </si>
-  <si>
-    <t>How long this thing happens for when it happens. If durationMax is present, this element indicates the lower bound of the allowed range of the duration.</t>
-  </si>
-  <si>
-    <t>For some events the duration is part of the definition of the event (e.g. IV infusions, where the duration is implicit in the specified quantity and rate). For others, it's part of the timing specification (e.g. exercise).</t>
-  </si>
-  <si>
-    <t>Some activities are not instantaneous and need to be maintained for a period of time.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.duration</t>
-  </si>
-  <si>
-    <t>PIVL.phase</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.durationMax</t>
-  </si>
-  <si>
-    <t>How long when it happens (Max)</t>
-  </si>
-  <si>
-    <t>If present, indicates that the duration is a range - so to perform the action between [duration] and [durationMax] time length.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.durationMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.durationUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
-  </si>
-  <si>
-    <t>The units of time for the duration, in UCUM units.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A unit of time (units from UCUM).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
-  </si>
-  <si>
-    <t>Timing.repeat.durationUnit</t>
-  </si>
-  <si>
-    <t>PIVL.phase.unit</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.frequency</t>
-  </si>
-  <si>
-    <t>Event occurs frequency times per period</t>
-  </si>
-  <si>
-    <t>The number of times to repeat the action within the specified period. If frequencyMax is present, this element indicates the lower bound of the allowed range of the frequency.</t>
-  </si>
-  <si>
-    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
-  </si>
-  <si>
-    <t>Timing.repeat.frequency</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.frequencyMax</t>
-  </si>
-  <si>
-    <t>Event occurs up to frequencyMax times per period</t>
-  </si>
-  <si>
-    <t>If present, indicates that the frequency is a range - so to repeat between [frequency] and [frequencyMax] times within the period or period range.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.frequencyMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.period</t>
-  </si>
-  <si>
-    <t>Indicates the duration of time over which repetitions are to occur; e.g. to express "3 times per day", 3 would be the frequency and "1 day" would be the period. If periodMax is present, this element indicates the lower bound of the allowed range of the period length.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.period</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.periodMax</t>
-  </si>
-  <si>
-    <t>Upper limit of period (3-4 hours)</t>
-  </si>
-  <si>
-    <t>If present, indicates that the period is a range from [period] to [periodMax], allowing expressing concepts such as "do this once every 3-5 days.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.periodMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.periodUnit</t>
-  </si>
-  <si>
-    <t>The units of time for the period in UCUM units.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.periodUnit</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.dayOfWeek</t>
-  </si>
-  <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
-  </si>
-  <si>
-    <t>If one or more days of week is provided, then the action happens only on the specified day(s).</t>
-  </si>
-  <si>
-    <t>If no days are specified, the action is assumed to happen every day as otherwise specified. The elements frequency and period cannot be used as well as dayOfWeek.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
-  </si>
-  <si>
-    <t>Timing.repeat.dayOfWeek</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.timeOfDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time
-</t>
-  </si>
-  <si>
-    <t>Time of day for action</t>
-  </si>
-  <si>
-    <t>Specified time of day for action to take place.</t>
-  </si>
-  <si>
-    <t>When time of day is specified, it is inferred that the action happens every day (as filtered by dayofWeek) on the specified times. The elements when, frequency and period cannot be used as well as timeOfDay.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.timeOfDay</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.when</t>
-  </si>
-  <si>
-    <t>... It shall only contain values from Event Timings</t>
-  </si>
-  <si>
-    <t>An approximate time period during the day, potentially linked to an event of daily living that indicates when the action should occur.</t>
-  </si>
-  <si>
-    <t>When more than one event is listed, the event is tied to the union of the specified events.</t>
-  </si>
-  <si>
-    <t>Timings are frequently determined by occurrences such as waking, eating and sleep.</t>
-  </si>
-  <si>
-    <t>Real world event relating to the schedule.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
-  </si>
-  <si>
-    <t>Timing.repeat.when</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-emed-event-timing:For the representation of the time of administration according to the 1-1-1-1 scheme, the values MORN-NOON-EVE-NIGHT are highly recommended. {$this='MORN' or $this='NOON' or $this='EVE' or $this='NIGHT'}only-standard-event-timings:The timing event shall only be 'MORN', 'NOON', 'EVE' or 'NIGHT'. {$this = 'MORN' or $this = 'NOON' or $this = 'EVE' or $this = 'NIGHT'}</t>
-  </si>
-  <si>
-    <t>EIVL.event</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unsignedInt
-</t>
-  </si>
-  <si>
-    <t>Minutes from event (before or after)</t>
-  </si>
-  <si>
-    <t>The number of minutes from the event. If the event code does not indicate whether the minutes is before or after the event, then the offset is assumed to be after the event.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.offset</t>
-  </si>
-  <si>
-    <t>EIVL.offset</t>
-  </si>
-  <si>
-    <t>Dosage.timing.code</t>
-  </si>
-  <si>
-    <t>BID etc. are defined as 'at institutionally specified times'. For example, an institution may choose that BID is "always at 7am and 6pm".  If it is inappropriate for this choice to be made, the code BID should not be used. Instead, a distinct organization-specific code should be used in place of the HL7-defined BID code and/or a structured representation should be used (in this case, specifying the two event times).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Code for a known / defined timing pattern.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
-  </si>
-  <si>
-    <t>Timing.code</t>
-  </si>
-  <si>
-    <t>QSC.code</t>
-  </si>
-  <si>
-    <t>Dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>boolean
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>Take "as needed" (for x)</t>
-  </si>
-  <si>
-    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
-  </si>
-  <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
-  </si>
-  <si>
-    <t>TQ1-9</t>
-  </si>
-  <si>
-    <t>Dosage.site</t>
-  </si>
-  <si>
-    <t>Body site to administer to</t>
-  </si>
-  <si>
-    <t>Body site to administer to.</t>
-  </si>
-  <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
-  </si>
-  <si>
-    <t>.approachSiteCode</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>Dosage.route</t>
-  </si>
-  <si>
-    <t>How drug should enter body</t>
-  </si>
-  <si>
-    <t>How drug should enter body.</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-term/ValueSet/edqm-routeofadministration</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>Technique for administering medication</t>
-  </si>
-  <si>
-    <t>Technique for administering medication.</t>
-  </si>
-  <si>
-    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-term/ValueSet/edqm-administrationmethod</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXR-4</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate</t>
-  </si>
-  <si>
-    <t>Amount of medication administered</t>
-  </si>
-  <si>
-    <t>The amount of medication administered.</t>
-  </si>
-  <si>
-    <t>TQ1-2</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.extension</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.type</t>
-  </si>
-  <si>
-    <t>If the type is not populated, assume to be "ordered".</t>
-  </si>
-  <si>
-    <t>The kind of dose or rate specified.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
-  </si>
-  <si>
-    <t>RXO-21; RXE-23</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.dose[x]</t>
-  </si>
-  <si>
-    <t>Range {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-range-with-emed-units}
-Quantity {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-quantity-with-emed-units}</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t>RXO-2, RXE-3</t>
@@ -1045,7 +1035,7 @@
     <t>Dosage.maxDosePerAdministration</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1395,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1404,17 +1394,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.5859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.43359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.0390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1423,24 +1413,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="198.02734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.33203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="169.7734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="128.11328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="109.8359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3352,17 +3342,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3377,7 +3369,7 @@
         <v>82</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3385,14 +3377,12 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3401,7 +3391,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3413,16 +3403,20 @@
         <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3470,7 +3464,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3485,7 +3479,7 @@
         <v>82</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3493,10 +3487,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3519,20 +3513,16 @@
         <v>101</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O20" t="s" s="2">
         <v>175</v>
       </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3595,7 +3585,7 @@
         <v>82</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3603,10 +3593,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3629,7 +3619,7 @@
         <v>101</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>179</v>
@@ -3637,8 +3627,12 @@
       <c r="M21" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3686,7 +3680,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3701,7 +3695,7 @@
         <v>82</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3709,10 +3703,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3735,19 +3729,19 @@
         <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3811,7 +3805,7 @@
         <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -3819,10 +3813,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3845,7 +3839,7 @@
         <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>191</v>
@@ -3853,12 +3847,8 @@
       <c r="M23" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3882,13 +3872,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -3906,7 +3896,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3921,7 +3911,7 @@
         <v>82</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3929,10 +3919,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3955,20 +3945,22 @@
         <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="R24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3988,13 +3980,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4012,7 +4004,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4027,7 +4019,7 @@
         <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4061,7 +4053,7 @@
         <v>101</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>204</v>
@@ -4074,53 +4066,51 @@
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q25" t="s" s="2">
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4135,7 +4125,7 @@
         <v>82</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4143,10 +4133,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4169,13 +4159,13 @@
         <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4226,7 +4216,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4241,7 +4231,7 @@
         <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4249,10 +4239,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4275,13 +4265,13 @@
         <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4332,7 +4322,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4347,7 +4337,7 @@
         <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4355,10 +4345,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4381,13 +4371,13 @@
         <v>101</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4414,13 +4404,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4438,7 +4428,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4453,7 +4443,7 @@
         <v>82</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4461,10 +4451,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4475,7 +4465,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4487,15 +4477,17 @@
         <v>101</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="M29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4520,13 +4512,11 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4544,13 +4534,13 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
@@ -4559,7 +4549,7 @@
         <v>82</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4567,10 +4557,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4593,16 +4583,16 @@
         <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4628,11 +4618,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4650,7 +4642,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4671,12 +4663,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4684,13 +4676,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>76</v>
@@ -4699,7 +4691,7 @@
         <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>230</v>
@@ -4710,7 +4702,9 @@
       <c r="N31" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4734,13 +4728,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -4758,7 +4752,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4770,10 +4764,10 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>90</v>
+        <v>238</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4781,10 +4775,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4792,13 +4786,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H32" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>76</v>
@@ -4807,20 +4801,16 @@
         <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4844,13 +4834,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -4868,22 +4858,22 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4891,10 +4881,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4917,15 +4907,17 @@
         <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4950,13 +4942,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -4974,7 +4966,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -4989,7 +4981,7 @@
         <v>82</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4997,10 +4989,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5011,7 +5003,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5023,16 +5015,16 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>93</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5058,31 +5050,31 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5097,18 +5089,18 @@
         <v>82</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5131,18 +5123,20 @@
         <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>258</v>
+        <v>118</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5169,10 +5163,10 @@
         <v>123</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5190,7 +5184,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5205,18 +5199,18 @@
         <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5242,16 +5236,14 @@
         <v>118</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5276,13 +5268,11 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5300,7 +5290,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5315,18 +5305,18 @@
         <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5352,14 +5342,16 @@
         <v>118</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5384,11 +5376,11 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -5406,7 +5398,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5421,18 +5413,18 @@
         <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5440,10 +5432,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5455,20 +5447,16 @@
         <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5492,11 +5480,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -5514,13 +5504,13 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
@@ -5529,18 +5519,18 @@
         <v>82</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>289</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5548,7 +5538,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>85</v>
@@ -5560,16 +5550,16 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>87</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5620,44 +5610,44 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>290</v>
+        <v>89</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5669,15 +5659,17 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5714,31 +5706,31 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>90</v>
@@ -5749,21 +5741,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -5772,21 +5764,21 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -5810,49 +5802,49 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -5868,13 +5860,13 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>76</v>
@@ -5883,17 +5875,19 @@
         <v>101</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>93</v>
+        <v>298</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -5918,28 +5912,26 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>296</v>
@@ -5957,26 +5949,28 @@
         <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>85</v>
@@ -5991,19 +5985,19 @@
         <v>101</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6040,17 +6034,19 @@
         <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6065,18 +6061,18 @@
         <v>82</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>309</v>
@@ -6104,16 +6100,16 @@
         <v>310</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6162,7 +6158,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6177,10 +6173,10 @@
         <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -6188,11 +6184,9 @@
         <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6204,7 +6198,7 @@
         <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>76</v>
@@ -6213,19 +6207,19 @@
         <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6274,7 +6268,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6289,18 +6283,18 @@
         <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6311,7 +6305,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6323,19 +6317,19 @@
         <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6384,7 +6378,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6399,18 +6393,18 @@
         <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6433,19 +6427,19 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6494,7 +6488,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6509,18 +6503,18 @@
         <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6543,19 +6537,17 @@
         <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -6604,7 +6596,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6619,132 +6611,24 @@
         <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL49">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:AL48">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI48">
+  <conditionalFormatting sqref="A2:AI47">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
